--- a/temp/BoldDemo.xlsx
+++ b/temp/BoldDemo.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,9 +46,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -417,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:B3"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,17 +421,376 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>а_1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>б_1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ц_1</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>Hello1</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>а_2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>б_2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ц_2</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>Hello</t>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>а_3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>б_3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ц_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>а_4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>б_4</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ц_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>а_5</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>б_5</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ц_5</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>а_6</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>б_6</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ц_6</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>а_7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>б_7</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ц_7</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>а_8</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>б_8</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ц_8</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>а_9</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>б_9</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ц_9</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>а_10</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>б_10</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ц_10</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>а_11</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>б_11</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ц_11</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>а_12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>б_12</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ц_12</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>а_13</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>б_13</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ц_13</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>а_14</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>б_14</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ц_14</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>а_15</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>б_15</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ц_15</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>а_16</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>б_16</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ц_16</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>а_17</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>б_17</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ц_17</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>а_18</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>б_18</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ц_18</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>а_19</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>б_19</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ц_19</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>б_21</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ц_20</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>б_22</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ц_23</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>б_22</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ц_24</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ц_24</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ц_24</t>
         </is>
       </c>
     </row>
